--- a/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
+++ b/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/zhiguo_zeng_centralesupelec_fr/Documents/Code/Python/digital_twin_robot/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{764CB2E5-6CBA-48FE-848B-1DBDC1F1FC46}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5B3398-9B9D-4246-997C-CBCAC9A99FBF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Test id</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Robot not moving.</t>
+  </si>
+  <si>
+    <t>20240321_122650</t>
+  </si>
+  <si>
+    <t>Try to move to pick up an item from second floor of a shelf. But failed.</t>
   </si>
 </sst>
 </file>
@@ -381,16 +387,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,6 +455,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
+++ b/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/zhiguo_zeng_centralesupelec_fr/Documents/Code/Python/digital_twin_robot/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D5B3398-9B9D-4246-997C-CBCAC9A99FBF}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED028A56-8B9A-45A0-BAB4-D2A98AEC96AF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Test id</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>Try to move to pick up an item from second floor of a shelf. But failed.</t>
+  </si>
+  <si>
+    <t>20240325_135213</t>
+  </si>
+  <si>
+    <t>20240325_152902</t>
+  </si>
+  <si>
+    <t>20240325_155003</t>
+  </si>
+  <si>
+    <t>Starting position: Straigt. Perform two operations</t>
   </si>
 </sst>
 </file>
@@ -387,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +475,30 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
+++ b/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/zhiguo_zeng_centralesupelec_fr/Documents/Code/Python/digital_twin_robot/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED028A56-8B9A-45A0-BAB4-D2A98AEC96AF}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90877791-9C7E-4912-B110-4EF4C774E5E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Test id</t>
   </si>
@@ -82,6 +82,42 @@
   </si>
   <si>
     <t>Starting position: Straigt. Perform two operations</t>
+  </si>
+  <si>
+    <t>20240425_093699</t>
+  </si>
+  <si>
+    <t>Not moving</t>
+  </si>
+  <si>
+    <t>20240425_094425</t>
+  </si>
+  <si>
+    <t>20240426_141190</t>
+  </si>
+  <si>
+    <t>Pick up a box from the shelf and move it to another shelf</t>
+  </si>
+  <si>
+    <t>20240426_140055</t>
+  </si>
+  <si>
+    <t>20240426_141532</t>
+  </si>
+  <si>
+    <t>Moving one motor</t>
+  </si>
+  <si>
+    <t>20240426_141602</t>
+  </si>
+  <si>
+    <t>20240426_141726</t>
+  </si>
+  <si>
+    <t>20240426_141938</t>
+  </si>
+  <si>
+    <t>20240426_141980</t>
   </si>
 </sst>
 </file>
@@ -399,19 +435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -427,7 +463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -435,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -443,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -451,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -459,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -467,7 +503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -475,7 +511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -483,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -491,12 +527,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
+++ b/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/zhiguo_zeng_centralesupelec_fr/Documents/Code/Python/digital_twin_robot/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90877791-9C7E-4912-B110-4EF4C774E5E5}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED028A56-8B9A-45A0-BAB4-D2A98AEC96AF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Test id</t>
   </si>
@@ -82,42 +82,6 @@
   </si>
   <si>
     <t>Starting position: Straigt. Perform two operations</t>
-  </si>
-  <si>
-    <t>20240425_093699</t>
-  </si>
-  <si>
-    <t>Not moving</t>
-  </si>
-  <si>
-    <t>20240425_094425</t>
-  </si>
-  <si>
-    <t>20240426_141190</t>
-  </si>
-  <si>
-    <t>Pick up a box from the shelf and move it to another shelf</t>
-  </si>
-  <si>
-    <t>20240426_140055</t>
-  </si>
-  <si>
-    <t>20240426_141532</t>
-  </si>
-  <si>
-    <t>Moving one motor</t>
-  </si>
-  <si>
-    <t>20240426_141602</t>
-  </si>
-  <si>
-    <t>20240426_141726</t>
-  </si>
-  <si>
-    <t>20240426_141938</t>
-  </si>
-  <si>
-    <t>20240426_141980</t>
   </si>
 </sst>
 </file>
@@ -435,19 +399,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -463,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -471,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -479,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -487,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -495,7 +459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -503,7 +467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -511,7 +475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -519,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -527,84 +491,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
+++ b/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/zhiguo_zeng_centralesupelec_fr/Documents/Code/Python/digital_twin_robot/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90877791-9C7E-4912-B110-4EF4C774E5E5}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDABE11-6EED-4BA3-8E55-F1208B668B34}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Test id</t>
   </si>
@@ -36,42 +36,24 @@
     <t>20240105_164214</t>
   </si>
   <si>
-    <t>Robot not moving, just starting up.</t>
-  </si>
-  <si>
     <t>20240105_165300</t>
   </si>
   <si>
-    <t>Not moving. Then perform a pick-up and place operation.</t>
-  </si>
-  <si>
     <t>20240105_165972</t>
   </si>
   <si>
-    <t>Not moving. After the operation.</t>
-  </si>
-  <si>
     <t>20240320_152031</t>
   </si>
   <si>
     <t>20240320_153841</t>
   </si>
   <si>
-    <t>Not moving. Move motor 6 -&gt; motor 1 sequentially.</t>
-  </si>
-  <si>
     <t>20240320_155664</t>
   </si>
   <si>
-    <t>Robot not moving.</t>
-  </si>
-  <si>
     <t>20240321_122650</t>
   </si>
   <si>
-    <t>Try to move to pick up an item from second floor of a shelf. But failed.</t>
-  </si>
-  <si>
     <t>20240325_135213</t>
   </si>
   <si>
@@ -81,9 +63,6 @@
     <t>20240325_155003</t>
   </si>
   <si>
-    <t>Starting position: Straigt. Perform two operations</t>
-  </si>
-  <si>
     <t>20240425_093699</t>
   </si>
   <si>
@@ -96,9 +75,6 @@
     <t>20240426_141190</t>
   </si>
   <si>
-    <t>Pick up a box from the shelf and move it to another shelf</t>
-  </si>
-  <si>
     <t>20240426_140055</t>
   </si>
   <si>
@@ -118,6 +94,45 @@
   </si>
   <si>
     <t>20240426_141980</t>
+  </si>
+  <si>
+    <t>Motor_1_failure</t>
+  </si>
+  <si>
+    <t>Motor_2_failure</t>
+  </si>
+  <si>
+    <t>Motor_3_failure</t>
+  </si>
+  <si>
+    <t>Motor_4_failure</t>
+  </si>
+  <si>
+    <t>Motor_5_failure</t>
+  </si>
+  <si>
+    <t>Motor_6_failure</t>
+  </si>
+  <si>
+    <t>20240503_163963</t>
+  </si>
+  <si>
+    <t>20240503_164435</t>
+  </si>
+  <si>
+    <t>Turning motor 6</t>
+  </si>
+  <si>
+    <t>20240503_164675</t>
+  </si>
+  <si>
+    <t>20240503_165189</t>
+  </si>
+  <si>
+    <t>Pick up and place</t>
+  </si>
+  <si>
+    <t>Move motor 6 -&gt; motor 1 sequentially.</t>
   </si>
 </sst>
 </file>
@@ -435,176 +450,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
+++ b/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/zhiguo_zeng_centralesupelec_fr/Documents/Code/Python/digital_twin_robot/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDABE11-6EED-4BA3-8E55-F1208B668B34}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3F1547-6440-4310-A6A8-9A9741556532}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>Test id</t>
   </si>
@@ -133,16 +133,124 @@
   </si>
   <si>
     <t>Move motor 6 -&gt; motor 1 sequentially.</t>
+  </si>
+  <si>
+    <t>20240524_094684</t>
+  </si>
+  <si>
+    <t>20240524_094877</t>
+  </si>
+  <si>
+    <t>20240524_100052</t>
+  </si>
+  <si>
+    <t>Turning motor 1</t>
+  </si>
+  <si>
+    <t>Turning motor 2</t>
+  </si>
+  <si>
+    <t>20240524_101062</t>
+  </si>
+  <si>
+    <t>Turning motor 3</t>
+  </si>
+  <si>
+    <t>Turning motor 4</t>
+  </si>
+  <si>
+    <t>Turning motor 5</t>
+  </si>
+  <si>
+    <t>20240524_101487</t>
+  </si>
+  <si>
+    <t>20240524_102066</t>
+  </si>
+  <si>
+    <t>20240524_102736</t>
+  </si>
+  <si>
+    <t>20240524_103973</t>
+  </si>
+  <si>
+    <t>20240524_104453</t>
+  </si>
+  <si>
+    <t>20240524_102301</t>
+  </si>
+  <si>
+    <t>20240524_104923</t>
+  </si>
+  <si>
+    <t>20240524_105370</t>
+  </si>
+  <si>
+    <t>20240524_105836</t>
+  </si>
+  <si>
+    <t>20240524_110994</t>
+  </si>
+  <si>
+    <t>Perform motor 1 fail</t>
+  </si>
+  <si>
+    <t>Perform motor 2 fail</t>
+  </si>
+  <si>
+    <t>Perform motor 3 fail</t>
+  </si>
+  <si>
+    <t>Perform motor 4 fail</t>
+  </si>
+  <si>
+    <t>Perform motor 5 fail</t>
+  </si>
+  <si>
+    <t>Perform motor 321654 fail</t>
+  </si>
+  <si>
+    <t>20240527_094865</t>
+  </si>
+  <si>
+    <t>Transfer goods</t>
+  </si>
+  <si>
+    <t>20240527_100759</t>
+  </si>
+  <si>
+    <t>20240527_101627</t>
+  </si>
+  <si>
+    <t>20240527_102436</t>
+  </si>
+  <si>
+    <t>20240527_102919</t>
+  </si>
+  <si>
+    <t>20240527_103311</t>
+  </si>
+  <si>
+    <t>20240527_103690</t>
+  </si>
+  <si>
+    <t>20240527_104247</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -450,20 +558,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -497,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -505,7 +613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -513,7 +621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -521,7 +629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -529,7 +637,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -537,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -545,7 +653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -553,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -561,7 +669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -587,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -598,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -609,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -635,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -643,7 +751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -651,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -659,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -667,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -675,7 +783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -683,7 +791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -694,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -702,7 +810,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -713,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -724,7 +832,329 @@
         <v>1</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
+++ b/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/Test conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/zhiguo_zeng_centralesupelec_fr/Documents/Code/Python/digital_twin_robot/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longzhou/Library/CloudStorage/OneDrive-PolitecnicodiMilano/group_7/robot_digital_twin/condition_monitoring_matlab_ros/matlab_application/collected_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="11_F25DC773A252ABDACC1048B9511F42AE5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3F1547-6440-4310-A6A8-9A9741556532}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22B373-B518-264A-9087-D0FDB864FF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="780" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>Test id</t>
   </si>
@@ -235,6 +235,30 @@
   </si>
   <si>
     <t>20240527_104247</t>
+  </si>
+  <si>
+    <t>20240604_101954</t>
+  </si>
+  <si>
+    <t>20240604_102364</t>
+  </si>
+  <si>
+    <t>20240604_103374</t>
+  </si>
+  <si>
+    <t>20240604_103587</t>
+  </si>
+  <si>
+    <t>20240604_103875</t>
+  </si>
+  <si>
+    <t>20240604_104025</t>
+  </si>
+  <si>
+    <t>20240604_104412</t>
+  </si>
+  <si>
+    <t>20240604_104765</t>
   </si>
 </sst>
 </file>
@@ -558,20 +582,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -605,7 +629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -613,7 +637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -621,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -629,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -637,7 +661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -645,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -653,7 +677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -661,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -669,7 +693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -695,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -706,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -717,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -743,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -751,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -759,7 +783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -767,7 +791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -775,7 +799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -783,7 +807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -791,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -802,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -810,7 +834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -821,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -832,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -840,7 +864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -848,7 +872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -856,7 +880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -864,7 +888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -872,7 +896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -880,7 +904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -888,7 +912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -896,7 +920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -904,7 +928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -912,7 +936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -920,7 +944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -928,7 +952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -936,7 +960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -944,7 +968,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -970,7 +994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -996,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1022,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -1048,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -1100,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -1150,6 +1174,100 @@
       </c>
       <c r="H46">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
